--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2547.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2547.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.289379208406462</v>
+        <v>2.018227577209473</v>
       </c>
       <c r="B1">
-        <v>2.195082942022811</v>
+        <v>2.30049729347229</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>7.886225700378418</v>
       </c>
       <c r="D1">
-        <v>1.311798761983916</v>
+        <v>1.009856224060059</v>
       </c>
       <c r="E1">
-        <v>0.9702307813487021</v>
+        <v>0.5756622552871704</v>
       </c>
     </row>
   </sheetData>
